--- a/medicine/Enfance/Klementyna_Hoffmanowa/Klementyna_Hoffmanowa.xlsx
+++ b/medicine/Enfance/Klementyna_Hoffmanowa/Klementyna_Hoffmanowa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Klementyna Hoffmanowa, connue en France sous la forme Clémentine Tanska Hoffman[1] (née le 23 novembre 1798 à Varsovie et morte le 21 septembre 1845 à Passy), est une écrivain pour enfants, romancière, dramaturge, traductrice et militante polonaise.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Klementyna Hoffmanowa, connue en France sous la forme Clémentine Tanska Hoffman (née le 23 novembre 1798 à Varsovie et morte le 21 septembre 1845 à Passy), est une écrivain pour enfants, romancière, dramaturge, traductrice et militante polonaise.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la fille d'un peintre polonais, Ignace Tański (pl) (Tańska est son nom de jeune fille). Elle publie son premier livre en 1819.
 En 1829, elle épouse  Karol Boromeusz Hoffman (pl) (1798-1875), écrivain, historien, juriste, écrivain politique. À la suite de l'échec de l'Insurrection de novembre 1830, elle s'exile avec son époux en France, comme des milliers de leurs compatriotes qui formeront ce qu'on appellera la Grande Émigration.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1819 : Pamiątka po dobrej Matce przez dobrą Polkę
 1823 : Wiązanie Helenki
@@ -558,7 +574,7 @@
 1839 : Karolina
 1841 : Krystyna
 1845 : Jan Kochanowski w Czarnolesie
-1845 : Dziennik Franciszki Krasińskiej w ostatnich latach panowania Augusta III pisany (Journal de la comtesse Françoise Krasinska écrit dans les dernières années du règne d'Auguste III, Bibliothèque nationale, Cracovie, 1929)[2]
+1845 : Dziennik Franciszki Krasińskiej w ostatnich latach panowania Augusta III pisany (Journal de la comtesse Françoise Krasinska écrit dans les dernières années du règne d'Auguste III, Bibliothèque nationale, Cracovie, 1929)
 1849 : Pisma pośmiertne
 1849 : O powinnościach kobiet
 1851 : Pismo święte wybrane z ksiąg Starego i Nowego Zakonu objaśnione uwagami pobożnych uczonych i ofiarowane matkom i dzieciom przez Autorkę Pamiątki po dobrej matce
